--- a/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
+++ b/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9632AF6-9940-46B8-B941-4CD2ECE44081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9039DE3-4915-4872-8FA7-B2EBB05B0D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{404EA253-EA28-4425-AB59-CAADAF4B36E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -109,13 +109,35 @@
   </si>
   <si>
     <t>Git hub link</t>
+  </si>
+  <si>
+    <t>Create 3 Projects</t>
+  </si>
+  <si>
+    <t>Create 3 projects , using image and buttons along with a todolist using react js</t>
+  </si>
+  <si>
+    <t>Create a music player and bank app</t>
+  </si>
+  <si>
+    <t>https://github.com/PrajwalPai21/Dlithe2/commit/e83f5848be8b9149804ef8616dae37cce7213502
+https://github.com/PrajwalPai21/Dlithe2/commit/3a7f4952d1634f6413ee58b64f33fc103ffecdd2</t>
+  </si>
+  <si>
+    <t>https://github.com/PrajwalPai21/Dlithe2/commit/40f068cf76c0748c095010fdc5dd88bd1fc48d9d</t>
+  </si>
+  <si>
+    <t>https://github.com/PrajwalPai21/Dlithe2/commit/4d4d7645dae48d26e0c3f2b0d0bf9129421b30bd</t>
+  </si>
+  <si>
+    <t>https://github.com/PrajwalPai21/Dlithe2/commit/b9a480b70e2cdf25127725f5b81732edb534a48f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +150,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -161,8 +192,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B87A4-F670-4738-AE14-783FB4ECCEC2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -486,7 +521,7 @@
     <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="73.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -525,6 +560,9 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -536,6 +574,9 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -547,6 +588,9 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -558,6 +602,9 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -629,8 +676,25 @@
       <c r="A13" s="1">
         <v>45692</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://github.com/PrajwalPai21/Dlithe2/commit/e83f5848be8b9149804ef8616dae37cce7213502https://github.com/PrajwalPai21/Dlithe2/commit/3a7f4952d1634f6413ee58b64f33fc103ffecdd2" xr:uid="{1BD1D5D6-01A8-4644-A097-9EC79C9A646D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
+++ b/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9039DE3-4915-4872-8FA7-B2EBB05B0D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2AB6C-00FC-42C9-A7A8-1432B352F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{404EA253-EA28-4425-AB59-CAADAF4B36E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Problem Solving</t>
-  </si>
-  <si>
-    <t>Finding conversion of fehrenit to celcious,prime or not,operators ,conversion of binary to decimal and dicimal to binary</t>
   </si>
   <si>
     <t>project Demonstration</t>
@@ -131,6 +128,24 @@
   </si>
   <si>
     <t>https://github.com/PrajwalPai21/Dlithe2/commit/b9a480b70e2cdf25127725f5b81732edb534a48f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redux </t>
+  </si>
+  <si>
+    <t>Mongo, Axios, Jira, ER,DB</t>
+  </si>
+  <si>
+    <t>Vite, Axios example,</t>
+  </si>
+  <si>
+    <t>Worked with Put,Get methods</t>
+  </si>
+  <si>
+    <t>Used React to work with it</t>
+  </si>
+  <si>
+    <t>Finding conversion of fehrenit to celcious,prime or not,operators ,conversion of binary to decimal and decimal to binary</t>
   </si>
 </sst>
 </file>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B87A4-F670-4738-AE14-783FB4ECCEC2}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -561,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -575,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,10 +670,10 @@
         <v>45716</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,10 +681,10 @@
         <v>45691</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,10 +692,10 @@
         <v>45692</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +703,37 @@
         <v>45693</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
+++ b/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2AB6C-00FC-42C9-A7A8-1432B352F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE2058-C056-421E-9936-7AF7F4404ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{404EA253-EA28-4425-AB59-CAADAF4B36E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Finding conversion of fehrenit to celcious,prime or not,operators ,conversion of binary to decimal and decimal to binary</t>
+  </si>
+  <si>
+    <t>Create a netflix like clone application with team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered Database concepts, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of DB , NoSql,Cloud DB , In memory DB,ER relationships </t>
   </si>
 </sst>
 </file>
@@ -525,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B87A4-F670-4738-AE14-783FB4ECCEC2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,6 +745,25 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/PrajwalPai21/Dlithe2/commit/e83f5848be8b9149804ef8616dae37cce7213502https://github.com/PrajwalPai21/Dlithe2/commit/3a7f4952d1634f6413ee58b64f33fc103ffecdd2" xr:uid="{1BD1D5D6-01A8-4644-A097-9EC79C9A646D}"/>

--- a/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
+++ b/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE2058-C056-421E-9936-7AF7F4404ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD84CE-3276-476D-9AA6-D65F0A4E1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{404EA253-EA28-4425-AB59-CAADAF4B36E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -155,13 +155,85 @@
   </si>
   <si>
     <t xml:space="preserve">Types of DB , NoSql,Cloud DB , In memory DB,ER relationships </t>
+  </si>
+  <si>
+    <t>Relational Database</t>
+  </si>
+  <si>
+    <t>Discussed RDBMS concepts.</t>
+  </si>
+  <si>
+    <t>Project Work</t>
+  </si>
+  <si>
+    <t>Worked on DBMS topics and created applications.</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Installed MySQL and discussed MYSql topics</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>Demonstrated the Movie project.</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>Created tables and UML diagrams.</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Performed table creation and data insertion.</t>
+  </si>
+  <si>
+    <t>Query Operations</t>
+  </si>
+  <si>
+    <t>Performed fetching operations for various problem statements.</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Learned the basics of Java.</t>
+  </si>
+  <si>
+    <t>Java Features</t>
+  </si>
+  <si>
+    <t>Learned abstraction, polymorphism, etc.</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Discussed logical and numerical operators.</t>
+  </si>
+  <si>
+    <t>Java Operations</t>
+  </si>
+  <si>
+    <t>Explored Java operations.</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Discussed use cases and operations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +254,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -216,8 +295,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B87A4-F670-4738-AE14-783FB4ECCEC2}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,7 +679,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -763,6 +858,147 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45735</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45736</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>45740</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>45741</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>45742</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45748</v>
+      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
+++ b/Excel Task Sheet/DlitheInternshipDailyUpdates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD84CE-3276-476D-9AA6-D65F0A4E1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6235229-742A-424E-BEE8-0D153A565E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{404EA253-EA28-4425-AB59-CAADAF4B36E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -227,13 +227,238 @@
   </si>
   <si>
     <t>Discussed use cases and operations.</t>
+  </si>
+  <si>
+    <t>Project Front End Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed Front end using figma </t>
+  </si>
+  <si>
+    <t>Project Back End database Design</t>
+  </si>
+  <si>
+    <t>Designed Backend Design using Draw SQL for designed tables and database</t>
+  </si>
+  <si>
+    <t>Features and Use Cases Discussion</t>
+  </si>
+  <si>
+    <t>Discussed the project use cases and features that can be implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullstack Operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemented simple full stack system </t>
+  </si>
+  <si>
+    <t>Presentation on frontend and backend</t>
+  </si>
+  <si>
+    <t>Presented the frontend and backend designs</t>
+  </si>
+  <si>
+    <t>Implemented Tables in MySQL</t>
+  </si>
+  <si>
+    <t>Created tables in MySQL workbench</t>
+  </si>
+  <si>
+    <t>discussed SpringBoot framework</t>
+  </si>
+  <si>
+    <t>Spring Boot framework dependencies</t>
+  </si>
+  <si>
+    <t>Training session on Leadership</t>
+  </si>
+  <si>
+    <t>Head of Dlithe came and gave a session on leadership skills</t>
+  </si>
+  <si>
+    <t>Get,Put,Post,Delete methods were discussed</t>
+  </si>
+  <si>
+    <t>Used Postman to implement HTTP methods</t>
+  </si>
+  <si>
+    <t>Implementation of HTTP methods</t>
+  </si>
+  <si>
+    <t>Discussed about HTTP methods</t>
+  </si>
+  <si>
+    <t>Project Implementation</t>
+  </si>
+  <si>
+    <t>User creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Postman for CRUD </t>
+  </si>
+  <si>
+    <t>Postman is used for verifying CRUD operations of User</t>
+  </si>
+  <si>
+    <t>Added a Playlist Feature</t>
+  </si>
+  <si>
+    <t>Create Playlists and verify api calls using Postman</t>
+  </si>
+  <si>
+    <t>API calls using Rapid-Api</t>
+  </si>
+  <si>
+    <t>Rapid Api discussoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of API calls </t>
+  </si>
+  <si>
+    <t>Rapid API implementation in Project</t>
+  </si>
+  <si>
+    <t>Discussed about Dependencies</t>
+  </si>
+  <si>
+    <t>Lombok.MySQL,JDBC</t>
+  </si>
+  <si>
+    <t>Software Dev life cycles</t>
+  </si>
+  <si>
+    <t>planning,develop,test,depoly,maintain discussion</t>
+  </si>
+  <si>
+    <t>Project Review</t>
+  </si>
+  <si>
+    <t>Review on Project development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS document </t>
+  </si>
+  <si>
+    <t>SRS Document discussion</t>
+  </si>
+  <si>
+    <t>Project Landing Page Creation</t>
+  </si>
+  <si>
+    <t>Created a Landing Page using React and Springboot</t>
+  </si>
+  <si>
+    <t>Testing for Landing Page</t>
+  </si>
+  <si>
+    <t>Used Postman to Test the end points of Landing Page</t>
+  </si>
+  <si>
+    <t>User Login/Logout</t>
+  </si>
+  <si>
+    <t>Created a Login/Logout System</t>
+  </si>
+  <si>
+    <t>Registration creation and Testing</t>
+  </si>
+  <si>
+    <t>Tested the user registration using postman</t>
+  </si>
+  <si>
+    <t>Using Bcrypt for Password Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password Auth using Bcrypt </t>
+  </si>
+  <si>
+    <t>Added a Subscription page - frontend</t>
+  </si>
+  <si>
+    <t>Subscription page for audiences</t>
+  </si>
+  <si>
+    <t>Demonstration on the project</t>
+  </si>
+  <si>
+    <t>Github Session and CRUD for playlists</t>
+  </si>
+  <si>
+    <t>CRUD operations was created for palylist and created music play feature</t>
+  </si>
+  <si>
+    <t>User Playlist Creation - Agile Technology</t>
+  </si>
+  <si>
+    <t>Users can create public or private playlists and discussed about agile technology</t>
+  </si>
+  <si>
+    <t>Music API using Rapid Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using RapidApi a music Api was implemented </t>
+  </si>
+  <si>
+    <t>Core Java Discussion</t>
+  </si>
+  <si>
+    <t>Pillars of Java , Abstraction Encapsulation</t>
+  </si>
+  <si>
+    <t>Polymorphism , Inheritence</t>
+  </si>
+  <si>
+    <t>Discusison about Polymorpihms and Inheritence</t>
+  </si>
+  <si>
+    <t>Implementation of Abstraction and Encap</t>
+  </si>
+  <si>
+    <t>Implementated an example about Abstration and Encapsulation</t>
+  </si>
+  <si>
+    <t>Implementation of Polymorphism and Inher</t>
+  </si>
+  <si>
+    <t>Implementated an example about Polymorphism and Inheritence</t>
+  </si>
+  <si>
+    <t>Java Getters and Setters method</t>
+  </si>
+  <si>
+    <t>Discussion and Implementation of Getters and Setters</t>
+  </si>
+  <si>
+    <t>MongoDB Installation - Optional</t>
+  </si>
+  <si>
+    <t>MongoDB discussion</t>
+  </si>
+  <si>
+    <t>Database Discussion</t>
+  </si>
+  <si>
+    <t>Database concepts that were needed for implementation was covered</t>
+  </si>
+  <si>
+    <t>Frontend Design using Figma</t>
+  </si>
+  <si>
+    <t>Frontend Design and DB Design</t>
+  </si>
+  <si>
+    <t>JDBC Discussion</t>
+  </si>
+  <si>
+    <t>Apache Tomcat discussion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +487,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -295,12 +526,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -308,11 +533,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B87A4-F670-4738-AE14-783FB4ECCEC2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,7 +901,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -727,7 +949,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45712</v>
+        <v>45710</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -738,7 +960,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -749,7 +971,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45714</v>
+        <v>45712</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -760,7 +982,7 @@
     </row>
     <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -771,7 +993,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45716</v>
+        <v>45714</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
@@ -782,7 +1004,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -793,7 +1015,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45692</v>
+        <v>45716</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -804,7 +1026,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45693</v>
+        <v>45717</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -815,7 +1037,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45722</v>
+        <v>45718</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -823,7 +1045,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45723</v>
+        <v>45719</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
@@ -831,7 +1053,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45726</v>
+        <v>45720</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
@@ -842,7 +1064,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45727</v>
+        <v>45721</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -850,7 +1072,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45728</v>
+        <v>45722</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -861,144 +1083,582 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45729</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>45723</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45730</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>45733</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>45734</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>45735</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>45736</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>45737</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>45740</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>45741</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>45742</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>45743</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>45744</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>45748</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
